--- a/StructureDefinition-RaceExtension.xlsx
+++ b/StructureDefinition-RaceExtension.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-21T18:47:54-03:00</t>
+    <t>2023-11-21T19:08:35-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RaceExtension.xlsx
+++ b/StructureDefinition-RaceExtension.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.1</t>
+    <t>0.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Extension of Race</t>
+    <t>Race</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-21T19:08:35-03:00</t>
+    <t>2024-01-16T20:08:55-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Represents the race of a patient. This extension is aligned with USCore.</t>
+    <t>Extension that represents the race of a patient.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/StructureDefinition-RaceExtension.xlsx
+++ b/StructureDefinition-RaceExtension.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-16T20:08:55-03:00</t>
+    <t>2024-01-17T07:29:27-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
